--- a/03.Results/NSCLC_LLR6_Scaler(StandardScaler)_prediction.xlsx
+++ b/03.Results/NSCLC_LLR6_Scaler(StandardScaler)_prediction.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,18 +21,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -48,27 +41,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -81,17 +59,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -463,24 +438,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>SAMPLE_ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>y_pred</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B2" t="n">
@@ -491,7 +466,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B3" t="n">
@@ -502,7 +477,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B4" t="n">
@@ -513,7 +488,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B5" t="n">
@@ -524,7 +499,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B6" t="n">
@@ -535,7 +510,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B7" t="n">
@@ -546,7 +521,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B8" t="n">
@@ -557,7 +532,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B9" t="n">
@@ -568,7 +543,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B10" t="n">
@@ -579,7 +554,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B11" t="n">
@@ -590,7 +565,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B12" t="n">
@@ -601,7 +576,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B13" t="n">
@@ -612,7 +587,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>254</v>
       </c>
       <c r="B14" t="n">
@@ -623,7 +598,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>258</v>
       </c>
       <c r="B15" t="n">
@@ -634,7 +609,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>269</v>
       </c>
       <c r="B16" t="n">
@@ -645,7 +620,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>275</v>
       </c>
       <c r="B17" t="n">
@@ -656,7 +631,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>278</v>
       </c>
       <c r="B18" t="n">
@@ -667,7 +642,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>279</v>
       </c>
       <c r="B19" t="n">
@@ -678,7 +653,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>284</v>
       </c>
       <c r="B20" t="n">
@@ -689,7 +664,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>287</v>
       </c>
       <c r="B21" t="n">
@@ -700,7 +675,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <v>291</v>
       </c>
       <c r="B22" t="n">
@@ -711,7 +686,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <v>292</v>
       </c>
       <c r="B23" t="n">
@@ -722,7 +697,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <v>295</v>
       </c>
       <c r="B24" t="n">
@@ -733,7 +708,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
         <v>300</v>
       </c>
       <c r="B25" t="n">
@@ -744,7 +719,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
         <v>302</v>
       </c>
       <c r="B26" t="n">
@@ -755,7 +730,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
         <v>305</v>
       </c>
       <c r="B27" t="n">
@@ -766,7 +741,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
         <v>309</v>
       </c>
       <c r="B28" t="n">
@@ -777,7 +752,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
         <v>312</v>
       </c>
       <c r="B29" t="n">
@@ -788,7 +763,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
         <v>315</v>
       </c>
       <c r="B30" t="n">
@@ -799,7 +774,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
         <v>326</v>
       </c>
       <c r="B31" t="n">
@@ -810,7 +785,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
         <v>347</v>
       </c>
       <c r="B32" t="n">
@@ -821,7 +796,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
         <v>379</v>
       </c>
       <c r="B33" t="n">
@@ -832,7 +807,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="1" t="n">
         <v>383</v>
       </c>
       <c r="B34" t="n">
@@ -843,7 +818,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="1" t="n">
         <v>404</v>
       </c>
       <c r="B35" t="n">
@@ -854,7 +829,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="1" t="n">
         <v>407</v>
       </c>
       <c r="B36" t="n">
@@ -865,7 +840,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="1" t="n">
         <v>418</v>
       </c>
       <c r="B37" t="n">
@@ -876,7 +851,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="1" t="n">
         <v>419</v>
       </c>
       <c r="B38" t="n">
@@ -887,7 +862,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="1" t="n">
         <v>431</v>
       </c>
       <c r="B39" t="n">
@@ -898,7 +873,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="1" t="n">
         <v>444</v>
       </c>
       <c r="B40" t="n">
@@ -909,7 +884,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="1" t="n">
         <v>452</v>
       </c>
       <c r="B41" t="n">
@@ -920,7 +895,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="1" t="n">
         <v>458</v>
       </c>
       <c r="B42" t="n">
@@ -931,7 +906,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="1" t="n">
         <v>462</v>
       </c>
       <c r="B43" t="n">
@@ -942,7 +917,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="1" t="n">
         <v>492</v>
       </c>
       <c r="B44" t="n">
@@ -953,7 +928,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="1" t="n">
         <v>499</v>
       </c>
       <c r="B45" t="n">
@@ -964,7 +939,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="1" t="n">
         <v>500</v>
       </c>
       <c r="B46" t="n">
@@ -975,7 +950,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="1" t="n">
         <v>503</v>
       </c>
       <c r="B47" t="n">
@@ -986,7 +961,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="1" t="n">
         <v>510</v>
       </c>
       <c r="B48" t="n">
@@ -997,7 +972,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="1" t="n">
         <v>511</v>
       </c>
       <c r="B49" t="n">
@@ -1008,7 +983,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="1" t="n">
         <v>519</v>
       </c>
       <c r="B50" t="n">
@@ -1019,7 +994,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="1" t="n">
         <v>522</v>
       </c>
       <c r="B51" t="n">
@@ -1030,7 +1005,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="1" t="n">
         <v>523</v>
       </c>
       <c r="B52" t="n">
@@ -1041,7 +1016,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="1" t="n">
         <v>524</v>
       </c>
       <c r="B53" t="n">
@@ -1052,7 +1027,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="1" t="n">
         <v>528</v>
       </c>
       <c r="B54" t="n">
@@ -1063,7 +1038,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="1" t="n">
         <v>529</v>
       </c>
       <c r="B55" t="n">
@@ -1074,7 +1049,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="1" t="n">
         <v>534</v>
       </c>
       <c r="B56" t="n">
@@ -1085,7 +1060,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="1" t="n">
         <v>535</v>
       </c>
       <c r="B57" t="n">
@@ -1096,7 +1071,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="1" t="n">
         <v>551</v>
       </c>
       <c r="B58" t="n">
@@ -1107,7 +1082,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="1" t="n">
         <v>554</v>
       </c>
       <c r="B59" t="n">
@@ -1118,7 +1093,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="1" t="n">
         <v>556</v>
       </c>
       <c r="B60" t="n">
@@ -1129,7 +1104,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="1" t="n">
         <v>560</v>
       </c>
       <c r="B61" t="n">
@@ -1140,7 +1115,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="1" t="n">
         <v>561</v>
       </c>
       <c r="B62" t="n">
@@ -1151,7 +1126,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="1" t="n">
         <v>562</v>
       </c>
       <c r="B63" t="n">
@@ -1162,7 +1137,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="1" t="n">
         <v>571</v>
       </c>
       <c r="B64" t="n">
@@ -1173,7 +1148,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="1" t="n">
         <v>576</v>
       </c>
       <c r="B65" t="n">
@@ -1184,7 +1159,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="1" t="n">
         <v>579</v>
       </c>
       <c r="B66" t="n">
@@ -1195,7 +1170,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="1" t="n">
         <v>584</v>
       </c>
       <c r="B67" t="n">
@@ -1206,7 +1181,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="1" t="n">
         <v>586</v>
       </c>
       <c r="B68" t="n">
@@ -1217,7 +1192,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="1" t="n">
         <v>589</v>
       </c>
       <c r="B69" t="n">
@@ -1228,7 +1203,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="1" t="n">
         <v>596</v>
       </c>
       <c r="B70" t="n">
@@ -1239,7 +1214,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="1" t="n">
         <v>598</v>
       </c>
       <c r="B71" t="n">
@@ -1250,7 +1225,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="1" t="n">
         <v>601</v>
       </c>
       <c r="B72" t="n">
@@ -1261,7 +1236,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="1" t="n">
         <v>603</v>
       </c>
       <c r="B73" t="n">
@@ -1272,7 +1247,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="1" t="n">
         <v>606</v>
       </c>
       <c r="B74" t="n">
@@ -1283,7 +1258,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="1" t="n">
         <v>611</v>
       </c>
       <c r="B75" t="n">
@@ -1294,7 +1269,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="1" t="n">
         <v>614</v>
       </c>
       <c r="B76" t="n">
@@ -1305,7 +1280,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="1" t="n">
         <v>618</v>
       </c>
       <c r="B77" t="n">
@@ -1316,7 +1291,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="1" t="n">
         <v>621</v>
       </c>
       <c r="B78" t="n">
@@ -1327,7 +1302,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="1" t="n">
         <v>622</v>
       </c>
       <c r="B79" t="n">
@@ -1338,7 +1313,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="1" t="n">
         <v>624</v>
       </c>
       <c r="B80" t="n">
@@ -1349,7 +1324,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="1" t="n">
         <v>637</v>
       </c>
       <c r="B81" t="n">
@@ -1360,7 +1335,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="1" t="n">
         <v>639</v>
       </c>
       <c r="B82" t="n">
@@ -1371,7 +1346,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="1" t="n">
         <v>645</v>
       </c>
       <c r="B83" t="n">
@@ -1382,7 +1357,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="1" t="n">
         <v>646</v>
       </c>
       <c r="B84" t="n">
@@ -1393,7 +1368,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="1" t="n">
         <v>651</v>
       </c>
       <c r="B85" t="n">
@@ -1404,7 +1379,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="1" t="n">
         <v>652</v>
       </c>
       <c r="B86" t="n">
@@ -1415,7 +1390,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="1" t="n">
         <v>658</v>
       </c>
       <c r="B87" t="n">
@@ -1426,7 +1401,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="1" t="n">
         <v>668</v>
       </c>
       <c r="B88" t="n">
@@ -1437,7 +1412,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="1" t="n">
         <v>669</v>
       </c>
       <c r="B89" t="n">
@@ -1448,7 +1423,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="1" t="n">
         <v>670</v>
       </c>
       <c r="B90" t="n">
@@ -1459,7 +1434,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="1" t="n">
         <v>671</v>
       </c>
       <c r="B91" t="n">
@@ -1470,7 +1445,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="1" t="n">
         <v>674</v>
       </c>
       <c r="B92" t="n">
@@ -1481,7 +1456,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="1" t="n">
         <v>684</v>
       </c>
       <c r="B93" t="n">
@@ -1492,7 +1467,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="1" t="n">
         <v>685</v>
       </c>
       <c r="B94" t="n">
@@ -1503,7 +1478,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="1" t="n">
         <v>686</v>
       </c>
       <c r="B95" t="n">
@@ -1514,7 +1489,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="1" t="n">
         <v>688</v>
       </c>
       <c r="B96" t="n">
@@ -1525,7 +1500,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="1" t="n">
         <v>689</v>
       </c>
       <c r="B97" t="n">
@@ -1536,7 +1511,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="1" t="n">
         <v>691</v>
       </c>
       <c r="B98" t="n">
@@ -1547,7 +1522,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="1" t="n">
         <v>692</v>
       </c>
       <c r="B99" t="n">
@@ -1558,7 +1533,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="1" t="n">
         <v>696</v>
       </c>
       <c r="B100" t="n">
@@ -1569,7 +1544,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="1" t="n">
         <v>699</v>
       </c>
       <c r="B101" t="n">
@@ -1580,7 +1555,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="1" t="n">
         <v>710</v>
       </c>
       <c r="B102" t="n">
@@ -1591,7 +1566,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="1" t="n">
         <v>712</v>
       </c>
       <c r="B103" t="n">
@@ -1602,7 +1577,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="1" t="n">
         <v>713</v>
       </c>
       <c r="B104" t="n">
@@ -1613,7 +1588,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="1" t="n">
         <v>714</v>
       </c>
       <c r="B105" t="n">
@@ -1624,7 +1599,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="1" t="n">
         <v>717</v>
       </c>
       <c r="B106" t="n">
@@ -1635,7 +1610,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="1" t="n">
         <v>728</v>
       </c>
       <c r="B107" t="n">
@@ -1646,7 +1621,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="1" t="n">
         <v>729</v>
       </c>
       <c r="B108" t="n">
@@ -1657,7 +1632,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="1" t="n">
         <v>733</v>
       </c>
       <c r="B109" t="n">
@@ -1668,7 +1643,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="1" t="n">
         <v>734</v>
       </c>
       <c r="B110" t="n">
@@ -1679,7 +1654,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="1" t="n">
         <v>736</v>
       </c>
       <c r="B111" t="n">
@@ -1690,7 +1665,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="1" t="n">
         <v>746</v>
       </c>
       <c r="B112" t="n">
@@ -1701,7 +1676,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="1" t="n">
         <v>747</v>
       </c>
       <c r="B113" t="n">
@@ -1712,7 +1687,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="1" t="n">
         <v>753</v>
       </c>
       <c r="B114" t="n">
@@ -1723,7 +1698,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="1" t="n">
         <v>754</v>
       </c>
       <c r="B115" t="n">
@@ -1734,7 +1709,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="1" t="n">
         <v>759</v>
       </c>
       <c r="B116" t="n">
@@ -1745,7 +1720,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="1" t="n">
         <v>763</v>
       </c>
       <c r="B117" t="n">
@@ -1756,7 +1731,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="1" t="n">
         <v>767</v>
       </c>
       <c r="B118" t="n">
@@ -1767,7 +1742,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="1" t="n">
         <v>776</v>
       </c>
       <c r="B119" t="n">
@@ -1778,7 +1753,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="1" t="n">
         <v>780</v>
       </c>
       <c r="B120" t="n">
@@ -1789,7 +1764,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="1" t="n">
         <v>784</v>
       </c>
       <c r="B121" t="n">
@@ -1800,7 +1775,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="1" t="n">
         <v>794</v>
       </c>
       <c r="B122" t="n">
@@ -1811,7 +1786,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="1" t="n">
         <v>796</v>
       </c>
       <c r="B123" t="n">
@@ -1822,7 +1797,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="1" t="n">
         <v>799</v>
       </c>
       <c r="B124" t="n">
@@ -1833,7 +1808,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="1" t="n">
         <v>801</v>
       </c>
       <c r="B125" t="n">
@@ -1844,7 +1819,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="1" t="n">
         <v>804</v>
       </c>
       <c r="B126" t="n">
@@ -1855,7 +1830,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="1" t="n">
         <v>807</v>
       </c>
       <c r="B127" t="n">
@@ -1866,7 +1841,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="1" t="n">
         <v>809</v>
       </c>
       <c r="B128" t="n">
@@ -1877,7 +1852,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="1" t="n">
         <v>810</v>
       </c>
       <c r="B129" t="n">
@@ -1888,7 +1863,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="1" t="n">
         <v>811</v>
       </c>
       <c r="B130" t="n">
@@ -1899,7 +1874,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="1" t="n">
         <v>813</v>
       </c>
       <c r="B131" t="n">
@@ -1910,7 +1885,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="1" t="n">
         <v>815</v>
       </c>
       <c r="B132" t="n">
@@ -1921,7 +1896,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="1" t="n">
         <v>818</v>
       </c>
       <c r="B133" t="n">
@@ -1932,7 +1907,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="1" t="n">
         <v>822</v>
       </c>
       <c r="B134" t="n">
@@ -1943,7 +1918,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="1" t="n">
         <v>831</v>
       </c>
       <c r="B135" t="n">
@@ -1954,7 +1929,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="1" t="n">
         <v>835</v>
       </c>
       <c r="B136" t="n">
@@ -1965,7 +1940,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="1" t="n">
         <v>843</v>
       </c>
       <c r="B137" t="n">
@@ -1976,7 +1951,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="1" t="n">
         <v>848</v>
       </c>
       <c r="B138" t="n">
@@ -1987,7 +1962,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="1" t="n">
         <v>854</v>
       </c>
       <c r="B139" t="n">
@@ -1998,7 +1973,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="1" t="n">
         <v>856</v>
       </c>
       <c r="B140" t="n">
@@ -2009,7 +1984,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="1" t="n">
         <v>857</v>
       </c>
       <c r="B141" t="n">
@@ -2020,7 +1995,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="1" t="n">
         <v>861</v>
       </c>
       <c r="B142" t="n">
@@ -2031,7 +2006,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="1" t="n">
         <v>863</v>
       </c>
       <c r="B143" t="n">
@@ -2042,7 +2017,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="1" t="n">
         <v>864</v>
       </c>
       <c r="B144" t="n">
@@ -2053,7 +2028,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="1" t="n">
         <v>870</v>
       </c>
       <c r="B145" t="n">
@@ -2064,7 +2039,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="1" t="n">
         <v>879</v>
       </c>
       <c r="B146" t="n">
@@ -2075,7 +2050,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="1" t="n">
         <v>880</v>
       </c>
       <c r="B147" t="n">
@@ -2086,7 +2061,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="1" t="n">
         <v>882</v>
       </c>
       <c r="B148" t="n">
@@ -2097,7 +2072,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="1" t="n">
         <v>883</v>
       </c>
       <c r="B149" t="n">
@@ -2108,7 +2083,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="1" t="n">
         <v>886</v>
       </c>
       <c r="B150" t="n">
@@ -2119,7 +2094,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="1" t="n">
         <v>888</v>
       </c>
       <c r="B151" t="n">
@@ -2130,7 +2105,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="1" t="n">
         <v>889</v>
       </c>
       <c r="B152" t="n">
@@ -2141,7 +2116,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="1" t="n">
         <v>890</v>
       </c>
       <c r="B153" t="n">
@@ -2152,7 +2127,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="1" t="n">
         <v>893</v>
       </c>
       <c r="B154" t="n">
@@ -2163,7 +2138,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="1" t="n">
         <v>894</v>
       </c>
       <c r="B155" t="n">
@@ -2174,7 +2149,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="1" t="n">
         <v>896</v>
       </c>
       <c r="B156" t="n">
@@ -2185,7 +2160,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="1" t="n">
         <v>902</v>
       </c>
       <c r="B157" t="n">
@@ -2196,7 +2171,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="1" t="n">
         <v>906</v>
       </c>
       <c r="B158" t="n">
@@ -2207,7 +2182,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="1" t="n">
         <v>908</v>
       </c>
       <c r="B159" t="n">
@@ -2218,7 +2193,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="1" t="n">
         <v>909</v>
       </c>
       <c r="B160" t="n">
@@ -2229,7 +2204,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="1" t="n">
         <v>910</v>
       </c>
       <c r="B161" t="n">
@@ -2240,7 +2215,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="1" t="n">
         <v>911</v>
       </c>
       <c r="B162" t="n">
@@ -2251,7 +2226,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="1" t="n">
         <v>916</v>
       </c>
       <c r="B163" t="n">
@@ -2262,7 +2237,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="1" t="n">
         <v>917</v>
       </c>
       <c r="B164" t="n">
@@ -2273,7 +2248,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="1" t="n">
         <v>918</v>
       </c>
       <c r="B165" t="n">
@@ -2284,7 +2259,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
+      <c r="A166" s="1" t="n">
         <v>922</v>
       </c>
       <c r="B166" t="n">
@@ -2295,7 +2270,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="1" t="n">
         <v>923</v>
       </c>
       <c r="B167" t="n">
@@ -2306,7 +2281,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="1" t="n">
         <v>924</v>
       </c>
       <c r="B168" t="n">
@@ -2317,7 +2292,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="1" t="n">
         <v>926</v>
       </c>
       <c r="B169" t="n">
@@ -2328,7 +2303,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="1" t="n">
         <v>927</v>
       </c>
       <c r="B170" t="n">
@@ -2339,7 +2314,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B171" t="n">
@@ -2350,7 +2325,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B172" t="n">
@@ -2361,7 +2336,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B173" t="n">
@@ -2372,7 +2347,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B174" t="n">
@@ -2383,7 +2358,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B175" t="n">
@@ -2394,7 +2369,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B176" t="n">
@@ -2405,7 +2380,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B177" t="n">
@@ -2416,7 +2391,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B178" t="n">
@@ -2427,7 +2402,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B179" t="n">
@@ -2438,7 +2413,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B180" t="n">
@@ -2449,7 +2424,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B181" t="n">
@@ -2460,7 +2435,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B182" t="n">
@@ -2471,7 +2446,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B183" t="n">
@@ -2482,7 +2457,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B184" t="n">
@@ -2493,7 +2468,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B185" t="n">
@@ -2504,7 +2479,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B186" t="n">
@@ -2515,7 +2490,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B187" t="n">
@@ -2526,7 +2501,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B188" t="n">
@@ -2537,7 +2512,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B189" t="n">
@@ -2548,7 +2523,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
@@ -2559,7 +2534,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
+      <c r="A191" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B191" t="n">
@@ -2570,7 +2545,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
+      <c r="A192" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B192" t="n">
@@ -2581,7 +2556,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B193" t="n">
@@ -2592,7 +2567,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B194" t="n">
@@ -2603,7 +2578,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B195" t="n">
@@ -2614,7 +2589,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B196" t="n">
@@ -2625,7 +2600,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B197" t="n">
@@ -2636,7 +2611,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B198" t="n">
@@ -2647,7 +2622,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B199" t="n">
@@ -2658,7 +2633,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B200" t="n">
@@ -2669,7 +2644,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B201" t="n">
@@ -2680,7 +2655,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B202" t="n">
@@ -2691,7 +2666,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B203" t="n">
@@ -2702,7 +2677,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B204" t="n">
@@ -2713,7 +2688,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" s="1" t="n">
         <v>250</v>
       </c>
       <c r="B205" t="n">
@@ -2724,7 +2699,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" s="1" t="n">
         <v>251</v>
       </c>
       <c r="B206" t="n">
@@ -2735,7 +2710,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" s="1" t="n">
         <v>255</v>
       </c>
       <c r="B207" t="n">
@@ -2746,7 +2721,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" s="1" t="n">
         <v>257</v>
       </c>
       <c r="B208" t="n">
@@ -2757,7 +2732,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" s="1" t="n">
         <v>259</v>
       </c>
       <c r="B209" t="n">
@@ -2768,7 +2743,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" s="1" t="n">
         <v>260</v>
       </c>
       <c r="B210" t="n">
@@ -2779,7 +2754,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" s="1" t="n">
         <v>262</v>
       </c>
       <c r="B211" t="n">
@@ -2790,7 +2765,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" s="1" t="n">
         <v>264</v>
       </c>
       <c r="B212" t="n">
@@ -2801,7 +2776,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" s="1" t="n">
         <v>266</v>
       </c>
       <c r="B213" t="n">
@@ -2812,7 +2787,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" s="1" t="n">
         <v>267</v>
       </c>
       <c r="B214" t="n">
@@ -2823,7 +2798,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" s="1" t="n">
         <v>268</v>
       </c>
       <c r="B215" t="n">
@@ -2834,7 +2809,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" s="1" t="n">
         <v>272</v>
       </c>
       <c r="B216" t="n">
@@ -2845,7 +2820,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" s="1" t="n">
         <v>275</v>
       </c>
       <c r="B217" t="n">
@@ -2856,7 +2831,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" s="1" t="n">
         <v>276</v>
       </c>
       <c r="B218" t="n">
@@ -2867,7 +2842,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" s="1" t="n">
         <v>277</v>
       </c>
       <c r="B219" t="n">
@@ -2878,7 +2853,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" s="1" t="n">
         <v>283</v>
       </c>
       <c r="B220" t="n">
@@ -2889,7 +2864,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" s="1" t="n">
         <v>292</v>
       </c>
       <c r="B221" t="n">
@@ -2900,7 +2875,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" s="1" t="n">
         <v>296</v>
       </c>
       <c r="B222" t="n">
@@ -2911,7 +2886,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" s="1" t="n">
         <v>298</v>
       </c>
       <c r="B223" t="n">
@@ -2922,7 +2897,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" s="1" t="n">
         <v>306</v>
       </c>
       <c r="B224" t="n">
@@ -2933,7 +2908,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" s="1" t="n">
         <v>307</v>
       </c>
       <c r="B225" t="n">
@@ -2944,7 +2919,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" s="1" t="n">
         <v>312</v>
       </c>
       <c r="B226" t="n">
@@ -2955,7 +2930,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" s="1" t="n">
         <v>315</v>
       </c>
       <c r="B227" t="n">
@@ -2966,7 +2941,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" s="1" t="n">
         <v>318</v>
       </c>
       <c r="B228" t="n">
@@ -2977,7 +2952,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" s="1" t="n">
         <v>319</v>
       </c>
       <c r="B229" t="n">
@@ -2988,7 +2963,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" s="1" t="n">
         <v>323</v>
       </c>
       <c r="B230" t="n">
@@ -2999,7 +2974,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" s="1" t="n">
         <v>325</v>
       </c>
       <c r="B231" t="n">
@@ -3010,7 +2985,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" s="1" t="n">
         <v>327</v>
       </c>
       <c r="B232" t="n">
@@ -3021,7 +2996,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" s="1" t="n">
         <v>328</v>
       </c>
       <c r="B233" t="n">
@@ -3032,7 +3007,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" s="1" t="n">
         <v>330</v>
       </c>
       <c r="B234" t="n">
@@ -3043,7 +3018,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" s="1" t="n">
         <v>333</v>
       </c>
       <c r="B235" t="n">
@@ -3054,7 +3029,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" s="1" t="n">
         <v>338</v>
       </c>
       <c r="B236" t="n">
@@ -3065,7 +3040,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" s="1" t="n">
         <v>339</v>
       </c>
       <c r="B237" t="n">
@@ -3076,7 +3051,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" s="1" t="n">
         <v>340</v>
       </c>
       <c r="B238" t="n">
@@ -3087,7 +3062,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" s="1" t="n">
         <v>343</v>
       </c>
       <c r="B239" t="n">
@@ -3098,7 +3073,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" s="1" t="n">
         <v>346</v>
       </c>
       <c r="B240" t="n">
@@ -3109,7 +3084,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
+      <c r="A241" s="1" t="n">
         <v>348</v>
       </c>
       <c r="B241" t="n">
@@ -3120,7 +3095,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="n">
+      <c r="A242" s="1" t="n">
         <v>352</v>
       </c>
       <c r="B242" t="n">
@@ -3131,7 +3106,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
+      <c r="A243" s="1" t="n">
         <v>353</v>
       </c>
       <c r="B243" t="n">
@@ -3142,7 +3117,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" s="1" t="n">
         <v>357</v>
       </c>
       <c r="B244" t="n">
@@ -3153,7 +3128,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
+      <c r="A245" s="1" t="n">
         <v>359</v>
       </c>
       <c r="B245" t="n">
@@ -3164,7 +3139,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" s="1" t="n">
         <v>360</v>
       </c>
       <c r="B246" t="n">
@@ -3175,7 +3150,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" s="1" t="n">
         <v>362</v>
       </c>
       <c r="B247" t="n">
@@ -3186,7 +3161,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" s="1" t="n">
         <v>368</v>
       </c>
       <c r="B248" t="n">
@@ -3197,7 +3172,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" s="1" t="n">
         <v>369</v>
       </c>
       <c r="B249" t="n">
@@ -3208,7 +3183,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" s="1" t="n">
         <v>370</v>
       </c>
       <c r="B250" t="n">
@@ -3219,7 +3194,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" s="1" t="n">
         <v>373</v>
       </c>
       <c r="B251" t="n">
@@ -3230,7 +3205,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" s="1" t="n">
         <v>374</v>
       </c>
       <c r="B252" t="n">
@@ -3241,7 +3216,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" s="1" t="n">
         <v>375</v>
       </c>
       <c r="B253" t="n">
@@ -3252,7 +3227,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" s="1" t="n">
         <v>376</v>
       </c>
       <c r="B254" t="n">
@@ -3263,7 +3238,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" s="1" t="n">
         <v>378</v>
       </c>
       <c r="B255" t="n">
@@ -3274,7 +3249,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" s="1" t="n">
         <v>379</v>
       </c>
       <c r="B256" t="n">
@@ -3285,7 +3260,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" s="1" t="n">
         <v>381</v>
       </c>
       <c r="B257" t="n">
@@ -3296,7 +3271,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" s="1" t="n">
         <v>383</v>
       </c>
       <c r="B258" t="n">
@@ -3307,7 +3282,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" s="1" t="n">
         <v>386</v>
       </c>
       <c r="B259" t="n">
@@ -3318,7 +3293,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" s="1" t="n">
         <v>387</v>
       </c>
       <c r="B260" t="n">
@@ -3329,7 +3304,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" s="1" t="n">
         <v>392</v>
       </c>
       <c r="B261" t="n">
@@ -3340,7 +3315,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" s="1" t="n">
         <v>393</v>
       </c>
       <c r="B262" t="n">
@@ -3351,7 +3326,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" s="1" t="n">
         <v>394</v>
       </c>
       <c r="B263" t="n">
@@ -3362,7 +3337,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" s="1" t="n">
         <v>400</v>
       </c>
       <c r="B264" t="n">
@@ -3373,7 +3348,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" s="1" t="n">
         <v>403</v>
       </c>
       <c r="B265" t="n">
@@ -3384,7 +3359,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" s="1" t="n">
         <v>404</v>
       </c>
       <c r="B266" t="n">
@@ -3395,7 +3370,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" s="1" t="n">
         <v>406</v>
       </c>
       <c r="B267" t="n">
@@ -3406,7 +3381,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" s="1" t="n">
         <v>407</v>
       </c>
       <c r="B268" t="n">
@@ -3417,7 +3392,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" s="1" t="n">
         <v>408</v>
       </c>
       <c r="B269" t="n">
@@ -3428,7 +3403,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" s="1" t="n">
         <v>409</v>
       </c>
       <c r="B270" t="n">
@@ -3439,7 +3414,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" s="1" t="n">
         <v>410</v>
       </c>
       <c r="B271" t="n">
@@ -3450,7 +3425,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
+      <c r="A272" s="1" t="n">
         <v>412</v>
       </c>
       <c r="B272" t="n">
@@ -3461,7 +3436,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" s="1" t="n">
         <v>413</v>
       </c>
       <c r="B273" t="n">
@@ -3472,7 +3447,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" s="1" t="n">
         <v>415</v>
       </c>
       <c r="B274" t="n">
@@ -3483,7 +3458,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" s="1" t="n">
         <v>418</v>
       </c>
       <c r="B275" t="n">
@@ -3494,7 +3469,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" s="1" t="n">
         <v>419</v>
       </c>
       <c r="B276" t="n">
@@ -3505,7 +3480,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="n">
+      <c r="A277" s="1" t="n">
         <v>420</v>
       </c>
       <c r="B277" t="n">
@@ -3516,7 +3491,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2" t="n">
+      <c r="A278" s="1" t="n">
         <v>421</v>
       </c>
       <c r="B278" t="n">
@@ -3527,7 +3502,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="n">
+      <c r="A279" s="1" t="n">
         <v>422</v>
       </c>
       <c r="B279" t="n">
@@ -3538,7 +3513,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="n">
+      <c r="A280" s="1" t="n">
         <v>423</v>
       </c>
       <c r="B280" t="n">
@@ -3549,7 +3524,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2" t="n">
+      <c r="A281" s="1" t="n">
         <v>424</v>
       </c>
       <c r="B281" t="n">
@@ -3560,7 +3535,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" s="1" t="n">
         <v>428</v>
       </c>
       <c r="B282" t="n">
@@ -3571,7 +3546,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" s="1" t="n">
         <v>429</v>
       </c>
       <c r="B283" t="n">
@@ -3582,7 +3557,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2" t="n">
+      <c r="A284" s="1" t="n">
         <v>430</v>
       </c>
       <c r="B284" t="n">
@@ -3593,7 +3568,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" s="1" t="n">
         <v>432</v>
       </c>
       <c r="B285" t="n">
@@ -3604,7 +3579,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="n">
+      <c r="A286" s="1" t="n">
         <v>434</v>
       </c>
       <c r="B286" t="n">
@@ -3615,7 +3590,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" s="1" t="n">
         <v>436</v>
       </c>
       <c r="B287" t="n">
@@ -3626,7 +3601,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" s="1" t="n">
         <v>443</v>
       </c>
       <c r="B288" t="n">
@@ -3637,7 +3612,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="2" t="n">
+      <c r="A289" s="1" t="n">
         <v>444</v>
       </c>
       <c r="B289" t="n">
@@ -3648,7 +3623,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="2" t="n">
+      <c r="A290" s="1" t="n">
         <v>445</v>
       </c>
       <c r="B290" t="n">
@@ -3659,7 +3634,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2" t="n">
+      <c r="A291" s="1" t="n">
         <v>446</v>
       </c>
       <c r="B291" t="n">
@@ -3670,7 +3645,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="2" t="n">
+      <c r="A292" s="1" t="n">
         <v>448</v>
       </c>
       <c r="B292" t="n">
@@ -3681,7 +3656,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="2" t="n">
+      <c r="A293" s="1" t="n">
         <v>449</v>
       </c>
       <c r="B293" t="n">
@@ -3692,7 +3667,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="2" t="n">
+      <c r="A294" s="1" t="n">
         <v>452</v>
       </c>
       <c r="B294" t="n">
@@ -3703,7 +3678,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="2" t="n">
+      <c r="A295" s="1" t="n">
         <v>454</v>
       </c>
       <c r="B295" t="n">
@@ -3714,7 +3689,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="2" t="n">
+      <c r="A296" s="1" t="n">
         <v>456</v>
       </c>
       <c r="B296" t="n">
@@ -3725,7 +3700,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="2" t="n">
+      <c r="A297" s="1" t="n">
         <v>457</v>
       </c>
       <c r="B297" t="n">
@@ -3736,7 +3711,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="2" t="n">
+      <c r="A298" s="1" t="n">
         <v>458</v>
       </c>
       <c r="B298" t="n">
@@ -3747,7 +3722,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="n">
+      <c r="A299" s="1" t="n">
         <v>459</v>
       </c>
       <c r="B299" t="n">
@@ -3758,7 +3733,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="2" t="n">
+      <c r="A300" s="1" t="n">
         <v>460</v>
       </c>
       <c r="B300" t="n">
@@ -3769,7 +3744,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="2" t="n">
+      <c r="A301" s="1" t="n">
         <v>461</v>
       </c>
       <c r="B301" t="n">
@@ -3780,7 +3755,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="2" t="n">
+      <c r="A302" s="1" t="n">
         <v>462</v>
       </c>
       <c r="B302" t="n">
@@ -3791,7 +3766,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="2" t="n">
+      <c r="A303" s="1" t="n">
         <v>463</v>
       </c>
       <c r="B303" t="n">
@@ -3802,7 +3777,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="2" t="n">
+      <c r="A304" s="1" t="n">
         <v>464</v>
       </c>
       <c r="B304" t="n">
@@ -3813,7 +3788,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="2" t="n">
+      <c r="A305" s="1" t="n">
         <v>465</v>
       </c>
       <c r="B305" t="n">
@@ -3824,7 +3799,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="2" t="n">
+      <c r="A306" s="1" t="n">
         <v>468</v>
       </c>
       <c r="B306" t="n">
@@ -3835,7 +3810,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="2" t="n">
+      <c r="A307" s="1" t="n">
         <v>471</v>
       </c>
       <c r="B307" t="n">
@@ -3846,7 +3821,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="2" t="n">
+      <c r="A308" s="1" t="n">
         <v>472</v>
       </c>
       <c r="B308" t="n">
@@ -3857,7 +3832,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="2" t="n">
+      <c r="A309" s="1" t="n">
         <v>473</v>
       </c>
       <c r="B309" t="n">
@@ -3868,7 +3843,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="2" t="n">
+      <c r="A310" s="1" t="n">
         <v>474</v>
       </c>
       <c r="B310" t="n">
@@ -3879,7 +3854,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="2" t="n">
+      <c r="A311" s="1" t="n">
         <v>475</v>
       </c>
       <c r="B311" t="n">
@@ -3890,7 +3865,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="2" t="n">
+      <c r="A312" s="1" t="n">
         <v>476</v>
       </c>
       <c r="B312" t="n">
@@ -3901,7 +3876,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="2" t="n">
+      <c r="A313" s="1" t="n">
         <v>477</v>
       </c>
       <c r="B313" t="n">
@@ -3912,7 +3887,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="2" t="n">
+      <c r="A314" s="1" t="n">
         <v>482</v>
       </c>
       <c r="B314" t="n">
@@ -3923,7 +3898,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="2" t="n">
+      <c r="A315" s="1" t="n">
         <v>484</v>
       </c>
       <c r="B315" t="n">
@@ -3934,7 +3909,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="2" t="n">
+      <c r="A316" s="1" t="n">
         <v>485</v>
       </c>
       <c r="B316" t="n">
@@ -3945,7 +3920,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="2" t="n">
+      <c r="A317" s="1" t="n">
         <v>486</v>
       </c>
       <c r="B317" t="n">
@@ -3956,7 +3931,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="2" t="n">
+      <c r="A318" s="1" t="n">
         <v>487</v>
       </c>
       <c r="B318" t="n">
@@ -3967,7 +3942,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="2" t="n">
+      <c r="A319" s="1" t="n">
         <v>490</v>
       </c>
       <c r="B319" t="n">
@@ -3978,7 +3953,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="2" t="n">
+      <c r="A320" s="1" t="n">
         <v>491</v>
       </c>
       <c r="B320" t="n">
@@ -3989,7 +3964,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="n">
+      <c r="A321" s="1" t="n">
         <v>492</v>
       </c>
       <c r="B321" t="n">
@@ -4000,7 +3975,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="n">
+      <c r="A322" s="1" t="n">
         <v>493</v>
       </c>
       <c r="B322" t="n">
@@ -4011,7 +3986,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="n">
+      <c r="A323" s="1" t="n">
         <v>494</v>
       </c>
       <c r="B323" t="n">
@@ -4022,7 +3997,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="n">
+      <c r="A324" s="1" t="n">
         <v>496</v>
       </c>
       <c r="B324" t="n">
@@ -4033,7 +4008,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
+      <c r="A325" s="1" t="n">
         <v>497</v>
       </c>
       <c r="B325" t="n">
@@ -4063,24 +4038,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>SAMPLE_ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>y_pred</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B2" t="n">
@@ -4091,7 +4066,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B3" t="n">
@@ -4102,7 +4077,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B4" t="n">
@@ -4113,7 +4088,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B5" t="n">
@@ -4124,7 +4099,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B6" t="n">
@@ -4135,7 +4110,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B7" t="n">
@@ -4146,7 +4121,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B8" t="n">
@@ -4157,7 +4132,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B9" t="n">
@@ -4168,7 +4143,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B10" t="n">
@@ -4179,7 +4154,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B11" t="n">
@@ -4190,7 +4165,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B12" t="n">
@@ -4201,7 +4176,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B13" t="n">
@@ -4212,7 +4187,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B14" t="n">
@@ -4223,7 +4198,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B15" t="n">
@@ -4234,7 +4209,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B16" t="n">
@@ -4245,7 +4220,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B17" t="n">
@@ -4256,7 +4231,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B18" t="n">
@@ -4267,7 +4242,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B19" t="n">
@@ -4278,7 +4253,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B20" t="n">
@@ -4289,7 +4264,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B21" t="n">
@@ -4300,7 +4275,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B22" t="n">
@@ -4311,7 +4286,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B23" t="n">
@@ -4322,7 +4297,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B24" t="n">
@@ -4333,7 +4308,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B25" t="n">
@@ -4344,7 +4319,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B26" t="n">
@@ -4355,7 +4330,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B27" t="n">
@@ -4366,7 +4341,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B28" t="n">
@@ -4377,7 +4352,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B29" t="n">
@@ -4388,7 +4363,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B30" t="n">
@@ -4399,7 +4374,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B31" t="n">
@@ -4410,7 +4385,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B32" t="n">
@@ -4421,7 +4396,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B33" t="n">
@@ -4432,7 +4407,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B34" t="n">
@@ -4443,7 +4418,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B35" t="n">
@@ -4454,7 +4429,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B36" t="n">
@@ -4465,7 +4440,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B37" t="n">
@@ -4476,7 +4451,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B38" t="n">
@@ -4487,7 +4462,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B39" t="n">
@@ -4498,7 +4473,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B40" t="n">
@@ -4509,7 +4484,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B41" t="n">
@@ -4520,7 +4495,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B42" t="n">
@@ -4531,7 +4506,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B43" t="n">
@@ -4542,7 +4517,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B44" t="n">
@@ -4553,7 +4528,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B45" t="n">
@@ -4564,7 +4539,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B46" t="n">
@@ -4575,7 +4550,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B47" t="n">
@@ -4586,7 +4561,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B48" t="n">
@@ -4597,7 +4572,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B49" t="n">
@@ -4608,7 +4583,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B50" t="n">
@@ -4619,7 +4594,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B51" t="n">
@@ -4630,7 +4605,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B52" t="n">
@@ -4641,7 +4616,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B53" t="n">
@@ -4652,7 +4627,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B54" t="n">
@@ -4663,7 +4638,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B55" t="n">
@@ -4674,7 +4649,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B56" t="n">
@@ -4685,7 +4660,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B57" t="n">
@@ -4696,7 +4671,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B58" t="n">
@@ -4707,7 +4682,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B59" t="n">
@@ -4718,7 +4693,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B60" t="n">
@@ -4729,7 +4704,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B61" t="n">
@@ -4740,7 +4715,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B62" t="n">
@@ -4751,7 +4726,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="1" t="n">
         <v>243</v>
       </c>
       <c r="B63" t="n">
@@ -4762,7 +4737,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="1" t="n">
         <v>244</v>
       </c>
       <c r="B64" t="n">
@@ -4773,7 +4748,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="1" t="n">
         <v>246</v>
       </c>
       <c r="B65" t="n">
@@ -4784,7 +4759,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="1" t="n">
         <v>247</v>
       </c>
       <c r="B66" t="n">
@@ -4795,7 +4770,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="1" t="n">
         <v>248</v>
       </c>
       <c r="B67" t="n">
@@ -4806,7 +4781,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="1" t="n">
         <v>250</v>
       </c>
       <c r="B68" t="n">
@@ -4817,7 +4792,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="1" t="n">
         <v>251</v>
       </c>
       <c r="B69" t="n">
@@ -4828,7 +4803,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="1" t="n">
         <v>252</v>
       </c>
       <c r="B70" t="n">
@@ -4839,7 +4814,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="1" t="n">
         <v>253</v>
       </c>
       <c r="B71" t="n">
@@ -4850,7 +4825,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="1" t="n">
         <v>255</v>
       </c>
       <c r="B72" t="n">
@@ -4861,7 +4836,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="1" t="n">
         <v>256</v>
       </c>
       <c r="B73" t="n">
@@ -4872,7 +4847,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="1" t="n">
         <v>257</v>
       </c>
       <c r="B74" t="n">
@@ -4883,7 +4858,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="1" t="n">
         <v>259</v>
       </c>
       <c r="B75" t="n">
@@ -4913,24 +4888,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>SAMPLE_ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>y_pred</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B2" t="n">
@@ -4941,7 +4916,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B3" t="n">
@@ -4952,7 +4927,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B4" t="n">
@@ -4963,7 +4938,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B5" t="n">
@@ -4974,7 +4949,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B6" t="n">
@@ -4985,7 +4960,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B7" t="n">
@@ -4996,7 +4971,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B8" t="n">
@@ -5007,7 +4982,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B9" t="n">
@@ -5018,7 +4993,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B10" t="n">
@@ -5029,7 +5004,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B11" t="n">
@@ -5040,7 +5015,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B12" t="n">
@@ -5051,7 +5026,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B13" t="n">
@@ -5062,7 +5037,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B14" t="n">
@@ -5073,7 +5048,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B15" t="n">
@@ -5084,7 +5059,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B16" t="n">
@@ -5095,7 +5070,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B17" t="n">
@@ -5106,7 +5081,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B18" t="n">
@@ -5117,7 +5092,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B19" t="n">
@@ -5128,7 +5103,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B20" t="n">
@@ -5139,7 +5114,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B21" t="n">
@@ -5150,7 +5125,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B22" t="n">
@@ -5161,7 +5136,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B23" t="n">
@@ -5172,7 +5147,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B24" t="n">
@@ -5183,7 +5158,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B25" t="n">
@@ -5194,7 +5169,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B26" t="n">
@@ -5205,7 +5180,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B27" t="n">
@@ -5216,7 +5191,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B28" t="n">
@@ -5227,7 +5202,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B29" t="n">
@@ -5238,7 +5213,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B30" t="n">
@@ -5249,7 +5224,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B31" t="n">
@@ -5260,7 +5235,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B32" t="n">
@@ -5271,7 +5246,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B33" t="n">
@@ -5282,7 +5257,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B34" t="n">
@@ -5293,7 +5268,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B35" t="n">
@@ -5304,7 +5279,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B36" t="n">
@@ -5315,7 +5290,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B37" t="n">
@@ -5326,7 +5301,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B38" t="n">
@@ -5337,7 +5312,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B39" t="n">
@@ -5348,7 +5323,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B40" t="n">
@@ -5359,7 +5334,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B41" t="n">
@@ -5370,7 +5345,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B42" t="n">
@@ -5381,7 +5356,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B43" t="n">
@@ -5392,7 +5367,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B44" t="n">
@@ -5403,7 +5378,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B45" t="n">
@@ -5414,7 +5389,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B46" t="n">
@@ -5425,7 +5400,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B47" t="n">
@@ -5436,7 +5411,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B48" t="n">
@@ -5447,7 +5422,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B49" t="n">
@@ -5458,7 +5433,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B50" t="n">
@@ -5469,7 +5444,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B51" t="n">
@@ -5480,7 +5455,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B52" t="n">
@@ -5491,7 +5466,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B53" t="n">
@@ -5502,7 +5477,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B54" t="n">
@@ -5513,7 +5488,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B55" t="n">
@@ -5524,7 +5499,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B56" t="n">
@@ -5535,7 +5510,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B57" t="n">
@@ -5546,7 +5521,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B58" t="n">
@@ -5557,7 +5532,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B59" t="n">
@@ -5568,7 +5543,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B60" t="n">
@@ -5579,7 +5554,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B61" t="n">
@@ -5590,7 +5565,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B62" t="n">
@@ -5601,7 +5576,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B63" t="n">
@@ -5612,7 +5587,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B64" t="n">
@@ -5623,7 +5598,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B65" t="n">
@@ -5634,7 +5609,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B66" t="n">
@@ -5645,7 +5620,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B67" t="n">
@@ -5656,7 +5631,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B68" t="n">
@@ -5667,7 +5642,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B69" t="n">
@@ -5678,7 +5653,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B70" t="n">
@@ -5689,7 +5664,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B71" t="n">
@@ -5700,7 +5675,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B72" t="n">
@@ -5711,7 +5686,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B73" t="n">
@@ -5722,7 +5697,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B74" t="n">
@@ -5733,7 +5708,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B75" t="n">
@@ -5744,7 +5719,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B76" t="n">
@@ -5755,7 +5730,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B77" t="n">
@@ -5766,7 +5741,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B78" t="n">
@@ -5777,7 +5752,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B79" t="n">
@@ -5788,7 +5763,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B80" t="n">
@@ -5799,7 +5774,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B81" t="n">
@@ -5810,7 +5785,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B82" t="n">
@@ -5821,7 +5796,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B83" t="n">
@@ -5832,7 +5807,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B84" t="n">
@@ -5843,7 +5818,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B85" t="n">
@@ -5854,7 +5829,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B86" t="n">
@@ -5865,7 +5840,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B87" t="n">
@@ -5876,7 +5851,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B88" t="n">
@@ -5887,7 +5862,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B89" t="n">
@@ -5898,7 +5873,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B90" t="n">
@@ -5909,7 +5884,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B91" t="n">
@@ -5920,7 +5895,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B92" t="n">
@@ -5931,7 +5906,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B93" t="n">
@@ -5942,7 +5917,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B94" t="n">
@@ -5953,7 +5928,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B95" t="n">
@@ -5964,7 +5939,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B96" t="n">
@@ -5975,7 +5950,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B97" t="n">
@@ -5986,7 +5961,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B98" t="n">
@@ -5997,7 +5972,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B99" t="n">
@@ -6008,7 +5983,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B100" t="n">
@@ -6019,7 +5994,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B101" t="n">
@@ -6030,7 +6005,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B102" t="n">
@@ -6041,7 +6016,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B103" t="n">
@@ -6052,7 +6027,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B104" t="n">
@@ -6063,7 +6038,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B105" t="n">
@@ -6074,7 +6049,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B106" t="n">
@@ -6085,7 +6060,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B107" t="n">
@@ -6096,7 +6071,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B108" t="n">
@@ -6107,7 +6082,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B109" t="n">
@@ -6118,7 +6093,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B110" t="n">
@@ -6129,7 +6104,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B111" t="n">
@@ -6140,7 +6115,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B112" t="n">
@@ -6151,7 +6126,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B113" t="n">
@@ -6162,7 +6137,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B114" t="n">
@@ -6173,7 +6148,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B115" t="n">
@@ -6184,7 +6159,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B116" t="n">
@@ -6195,7 +6170,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B117" t="n">
@@ -6206,7 +6181,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B118" t="n">
@@ -6217,7 +6192,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B119" t="n">
@@ -6228,7 +6203,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B120" t="n">
@@ -6239,7 +6214,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B121" t="n">
@@ -6250,7 +6225,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B122" t="n">
@@ -6261,7 +6236,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B123" t="n">
@@ -6272,7 +6247,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B124" t="n">
@@ -6283,7 +6258,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B125" t="n">
@@ -6294,7 +6269,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B126" t="n">
@@ -6305,7 +6280,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B127" t="n">
@@ -6316,7 +6291,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B128" t="n">
@@ -6327,7 +6302,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B129" t="n">
@@ -6338,7 +6313,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B130" t="n">
@@ -6349,7 +6324,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B131" t="n">
@@ -6360,7 +6335,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B132" t="n">
@@ -6371,7 +6346,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B133" t="n">
@@ -6382,7 +6357,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B134" t="n">
@@ -6393,7 +6368,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B135" t="n">
@@ -6404,7 +6379,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B136" t="n">
@@ -6415,7 +6390,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B137" t="n">
@@ -6426,7 +6401,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B138" t="n">
@@ -6437,7 +6412,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B139" t="n">
@@ -6448,7 +6423,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B140" t="n">
@@ -6459,7 +6434,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B141" t="n">
@@ -6470,7 +6445,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B142" t="n">
@@ -6481,7 +6456,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B143" t="n">
@@ -6492,7 +6467,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B144" t="n">
@@ -6503,7 +6478,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B145" t="n">
@@ -6533,24 +6508,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>SAMPLE_ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>y_pred</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B2" t="n">
@@ -6561,7 +6536,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B3" t="n">
@@ -6572,7 +6547,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B4" t="n">
@@ -6583,7 +6558,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B5" t="n">
@@ -6594,7 +6569,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B6" t="n">
@@ -6605,7 +6580,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B7" t="n">
@@ -6616,7 +6591,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B8" t="n">
@@ -6627,7 +6602,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B9" t="n">
@@ -6638,7 +6613,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B10" t="n">
@@ -6649,7 +6624,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B11" t="n">
@@ -6660,7 +6635,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B12" t="n">
@@ -6671,7 +6646,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B13" t="n">
@@ -6682,7 +6657,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B14" t="n">
@@ -6693,7 +6668,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B15" t="n">
@@ -6704,7 +6679,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B16" t="n">
@@ -6715,7 +6690,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B17" t="n">
@@ -6726,7 +6701,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B18" t="n">
@@ -6737,7 +6712,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B19" t="n">
@@ -6748,7 +6723,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B20" t="n">
@@ -6759,7 +6734,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B21" t="n">
@@ -6770,7 +6745,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B22" t="n">
@@ -6781,7 +6756,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B23" t="n">
@@ -6792,7 +6767,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B24" t="n">
@@ -6803,7 +6778,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B25" t="n">
@@ -6814,7 +6789,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B26" t="n">
@@ -6825,7 +6800,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B27" t="n">
@@ -6836,7 +6811,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B28" t="n">
@@ -6847,7 +6822,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B29" t="n">
@@ -6858,7 +6833,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B30" t="n">
@@ -6869,7 +6844,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B31" t="n">
@@ -6880,7 +6855,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B32" t="n">
@@ -6891,7 +6866,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B33" t="n">
@@ -6902,7 +6877,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B34" t="n">
@@ -6913,7 +6888,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B35" t="n">
@@ -6924,7 +6899,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B36" t="n">
@@ -6935,7 +6910,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B37" t="n">
@@ -6946,7 +6921,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B38" t="n">
@@ -6957,7 +6932,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B39" t="n">
@@ -6968,7 +6943,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B40" t="n">
@@ -6979,7 +6954,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B41" t="n">
@@ -6990,7 +6965,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B42" t="n">
@@ -7001,7 +6976,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B43" t="n">
@@ -7012,7 +6987,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B44" t="n">
@@ -7023,7 +6998,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B45" t="n">
@@ -7034,7 +7009,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B46" t="n">
@@ -7045,7 +7020,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B47" t="n">
@@ -7056,7 +7031,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B48" t="n">
@@ -7067,7 +7042,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B49" t="n">
@@ -7078,7 +7053,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B50" t="n">
@@ -7089,7 +7064,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B51" t="n">
@@ -7100,7 +7075,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B52" t="n">
@@ -7111,7 +7086,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B53" t="n">
@@ -7122,7 +7097,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B54" t="n">
@@ -7133,7 +7108,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B55" t="n">
@@ -7144,7 +7119,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B56" t="n">
@@ -7155,7 +7130,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B57" t="n">
@@ -7166,7 +7141,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B58" t="n">
@@ -7177,7 +7152,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B59" t="n">
@@ -7188,7 +7163,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B60" t="n">
@@ -7199,7 +7174,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B61" t="n">
@@ -7210,7 +7185,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B62" t="n">
@@ -7221,7 +7196,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B63" t="n">
@@ -7232,7 +7207,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B64" t="n">
@@ -7243,7 +7218,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B65" t="n">
@@ -7254,7 +7229,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B66" t="n">
@@ -7265,7 +7240,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B67" t="n">
@@ -7276,7 +7251,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B68" t="n">
@@ -7287,7 +7262,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B69" t="n">
@@ -7298,7 +7273,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B70" t="n">
@@ -7309,7 +7284,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B71" t="n">
@@ -7320,7 +7295,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B72" t="n">
@@ -7331,7 +7306,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B73" t="n">
@@ -7342,7 +7317,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B74" t="n">
@@ -7353,7 +7328,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B75" t="n">
@@ -7364,7 +7339,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B76" t="n">
@@ -7375,7 +7350,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B77" t="n">
@@ -7386,7 +7361,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B78" t="n">
@@ -7397,7 +7372,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B79" t="n">
@@ -7408,7 +7383,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B80" t="n">
@@ -7419,7 +7394,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B81" t="n">
@@ -7430,7 +7405,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B82" t="n">
@@ -7441,7 +7416,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B83" t="n">
@@ -7452,7 +7427,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B84" t="n">
@@ -7463,7 +7438,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B85" t="n">
@@ -7474,7 +7449,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B86" t="n">
@@ -7485,7 +7460,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B87" t="n">
@@ -7496,7 +7471,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B88" t="n">
@@ -7507,7 +7482,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B89" t="n">
@@ -7518,7 +7493,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B90" t="n">
@@ -7529,7 +7504,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B91" t="n">
@@ -7540,7 +7515,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B92" t="n">
@@ -7551,7 +7526,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B93" t="n">
@@ -7562,7 +7537,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B94" t="n">
@@ -7573,7 +7548,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B95" t="n">
@@ -7584,7 +7559,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B96" t="n">
@@ -7595,7 +7570,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B97" t="n">
@@ -7606,7 +7581,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B98" t="n">
@@ -7617,7 +7592,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B99" t="n">
@@ -7628,7 +7603,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B100" t="n">
@@ -7639,7 +7614,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B101" t="n">
@@ -7650,7 +7625,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B102" t="n">
@@ -7661,7 +7636,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B103" t="n">
@@ -7672,7 +7647,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B104" t="n">
@@ -7683,7 +7658,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B105" t="n">
@@ -7694,7 +7669,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B106" t="n">
@@ -7705,7 +7680,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B107" t="n">
@@ -7716,7 +7691,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B108" t="n">
@@ -7727,7 +7702,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B109" t="n">
@@ -7738,7 +7713,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B110" t="n">
@@ -7749,7 +7724,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B111" t="n">
@@ -7760,7 +7735,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B112" t="n">
@@ -7771,7 +7746,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B113" t="n">
@@ -7782,7 +7757,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B114" t="n">
@@ -7793,7 +7768,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B115" t="n">
@@ -7804,7 +7779,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B116" t="n">
@@ -7815,7 +7790,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B117" t="n">
@@ -7826,7 +7801,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B118" t="n">
@@ -7837,7 +7812,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B119" t="n">
@@ -7848,7 +7823,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B120" t="n">
@@ -7859,7 +7834,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B121" t="n">
@@ -7870,7 +7845,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B122" t="n">
@@ -7881,7 +7856,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B123" t="n">
@@ -7892,7 +7867,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B124" t="n">
@@ -7903,7 +7878,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B125" t="n">
@@ -7914,7 +7889,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B126" t="n">
@@ -7925,7 +7900,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B127" t="n">
@@ -7936,7 +7911,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B128" t="n">
@@ -7947,7 +7922,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B129" t="n">
@@ -7958,7 +7933,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B130" t="n">
@@ -7969,7 +7944,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B131" t="n">
@@ -7980,7 +7955,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B132" t="n">
@@ -7991,7 +7966,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B133" t="n">
@@ -8002,7 +7977,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B134" t="n">
@@ -8013,7 +7988,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B135" t="n">
@@ -8024,7 +7999,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B136" t="n">
@@ -8035,7 +8010,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B137" t="n">
@@ -8046,7 +8021,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B138" t="n">
@@ -8057,7 +8032,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B139" t="n">
@@ -8068,7 +8043,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B140" t="n">
@@ -8079,7 +8054,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B141" t="n">
@@ -8090,7 +8065,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B142" t="n">
@@ -8101,7 +8076,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B143" t="n">
@@ -8112,7 +8087,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B144" t="n">
@@ -8123,7 +8098,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B145" t="n">
@@ -8134,7 +8109,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B146" t="n">
@@ -8145,7 +8120,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B147" t="n">
@@ -8156,7 +8131,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B148" t="n">
@@ -8167,7 +8142,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B149" t="n">
@@ -8178,7 +8153,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B150" t="n">
@@ -8189,7 +8164,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B151" t="n">
@@ -8200,7 +8175,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B152" t="n">
@@ -8211,7 +8186,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B153" t="n">
@@ -8222,7 +8197,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B154" t="n">
@@ -8233,7 +8208,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B155" t="n">
@@ -8244,7 +8219,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B156" t="n">
@@ -8255,7 +8230,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B157" t="n">
@@ -8266,7 +8241,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B158" t="n">
@@ -8277,7 +8252,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B159" t="n">
@@ -8288,7 +8263,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B160" t="n">
@@ -8299,7 +8274,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B161" t="n">
@@ -8310,7 +8285,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B162" t="n">
@@ -8321,7 +8296,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B163" t="n">
@@ -8332,7 +8307,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B164" t="n">
@@ -8343,7 +8318,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B165" t="n">
@@ -8354,7 +8329,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
+      <c r="A166" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B166" t="n">
@@ -8365,7 +8340,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B167" t="n">
@@ -8376,7 +8351,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B168" t="n">
@@ -8387,7 +8362,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B169" t="n">
@@ -8398,7 +8373,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B170" t="n">
@@ -8409,7 +8384,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B171" t="n">
@@ -8420,7 +8395,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B172" t="n">
@@ -8431,7 +8406,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B173" t="n">
@@ -8442,7 +8417,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B174" t="n">
@@ -8453,7 +8428,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B175" t="n">
@@ -8464,7 +8439,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B176" t="n">
@@ -8475,7 +8450,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B177" t="n">
@@ -8486,7 +8461,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B178" t="n">
@@ -8497,7 +8472,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B179" t="n">
@@ -8508,7 +8483,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B180" t="n">
@@ -8519,7 +8494,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B181" t="n">
@@ -8530,7 +8505,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B182" t="n">
@@ -8541,7 +8516,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B183" t="n">
@@ -8552,7 +8527,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B184" t="n">
@@ -8563,7 +8538,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B185" t="n">
@@ -8574,7 +8549,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B186" t="n">
@@ -8585,7 +8560,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B187" t="n">
@@ -8596,7 +8571,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B188" t="n">
@@ -8607,7 +8582,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B189" t="n">
@@ -8618,7 +8593,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B190" t="n">
@@ -8629,7 +8604,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
+      <c r="A191" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B191" t="n">
@@ -8640,7 +8615,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
+      <c r="A192" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B192" t="n">
@@ -8651,7 +8626,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B193" t="n">
@@ -8662,7 +8637,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B194" t="n">
@@ -8673,7 +8648,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B195" t="n">
@@ -8684,7 +8659,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B196" t="n">
@@ -8695,7 +8670,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B197" t="n">
@@ -8706,7 +8681,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B198" t="n">
@@ -8717,7 +8692,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" s="1" t="n">
         <v>243</v>
       </c>
       <c r="B199" t="n">
@@ -8728,7 +8703,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" s="1" t="n">
         <v>244</v>
       </c>
       <c r="B200" t="n">
@@ -8739,7 +8714,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" s="1" t="n">
         <v>245</v>
       </c>
       <c r="B201" t="n">
@@ -8750,7 +8725,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" s="1" t="n">
         <v>246</v>
       </c>
       <c r="B202" t="n">
@@ -8780,24 +8755,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>SAMPLE_ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>y_pred</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B2" t="n">
@@ -8808,7 +8783,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B3" t="n">
@@ -8819,7 +8794,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B4" t="n">
@@ -8830,7 +8805,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B5" t="n">
@@ -8841,7 +8816,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B6" t="n">
@@ -8852,7 +8827,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B7" t="n">
@@ -8863,7 +8838,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B8" t="n">
@@ -8874,7 +8849,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B9" t="n">
@@ -8885,7 +8860,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B10" t="n">
@@ -8896,7 +8871,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B11" t="n">
@@ -8907,7 +8882,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B12" t="n">
@@ -8918,7 +8893,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B13" t="n">
@@ -8929,7 +8904,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B14" t="n">
@@ -8940,7 +8915,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B15" t="n">
@@ -8951,7 +8926,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B16" t="n">
@@ -8962,7 +8937,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B17" t="n">
@@ -8973,7 +8948,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B18" t="n">
@@ -8984,7 +8959,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B19" t="n">
@@ -8995,7 +8970,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B20" t="n">
@@ -9006,7 +8981,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B21" t="n">
@@ -9017,7 +8992,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B22" t="n">
@@ -9028,7 +9003,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B23" t="n">
@@ -9039,7 +9014,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B24" t="n">
@@ -9050,7 +9025,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B25" t="n">
@@ -9061,7 +9036,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B26" t="n">
@@ -9072,7 +9047,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B27" t="n">
@@ -9083,7 +9058,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B28" t="n">
@@ -9094,7 +9069,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B29" t="n">
@@ -9105,7 +9080,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B30" t="n">
@@ -9116,7 +9091,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B31" t="n">
@@ -9127,7 +9102,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B32" t="n">
@@ -9138,7 +9113,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B33" t="n">
@@ -9149,7 +9124,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B34" t="n">
@@ -9160,7 +9135,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B35" t="n">
@@ -9171,7 +9146,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B36" t="n">
@@ -9182,7 +9157,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B37" t="n">
@@ -9193,18 +9168,18 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3987041439942268</v>
+        <v>0.3987041439942267</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B39" t="n">
@@ -9215,7 +9190,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B40" t="n">
@@ -9226,7 +9201,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B41" t="n">
@@ -9237,7 +9212,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B42" t="n">
@@ -9248,7 +9223,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B43" t="n">
@@ -9259,7 +9234,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B44" t="n">
@@ -9270,7 +9245,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B45" t="n">
@@ -9281,7 +9256,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B46" t="n">
@@ -9292,7 +9267,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B47" t="n">
@@ -9303,7 +9278,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B48" t="n">
@@ -9314,7 +9289,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B49" t="n">
@@ -9325,7 +9300,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B50" t="n">
@@ -9336,7 +9311,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B51" t="n">
@@ -9347,7 +9322,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B52" t="n">
@@ -9358,7 +9333,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B53" t="n">
@@ -9369,7 +9344,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B54" t="n">
@@ -9380,7 +9355,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B55" t="n">
@@ -9391,7 +9366,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B56" t="n">
@@ -9402,7 +9377,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B57" t="n">
@@ -9413,7 +9388,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B58" t="n">
@@ -9424,7 +9399,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B59" t="n">
@@ -9435,7 +9410,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B60" t="n">
@@ -9446,7 +9421,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B61" t="n">
@@ -9457,7 +9432,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B62" t="n">
@@ -9468,7 +9443,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B63" t="n">
@@ -9479,7 +9454,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B64" t="n">
@@ -9490,7 +9465,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B65" t="n">
@@ -9501,7 +9476,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B66" t="n">
@@ -9512,7 +9487,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B67" t="n">
@@ -9523,7 +9498,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B68" t="n">
@@ -9534,7 +9509,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B69" t="n">
@@ -9545,7 +9520,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B70" t="n">
@@ -9556,7 +9531,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B71" t="n">
@@ -9567,7 +9542,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B72" t="n">
@@ -9578,7 +9553,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B73" t="n">
@@ -9589,7 +9564,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B74" t="n">
@@ -9600,7 +9575,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B75" t="n">
@@ -9611,7 +9586,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B76" t="n">
@@ -9622,7 +9597,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B77" t="n">
@@ -9633,7 +9608,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B78" t="n">
@@ -9644,7 +9619,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B79" t="n">
@@ -9655,7 +9630,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B80" t="n">
@@ -9666,7 +9641,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B81" t="n">
@@ -9677,7 +9652,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B82" t="n">
@@ -9688,7 +9663,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B83" t="n">
@@ -9699,7 +9674,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B84" t="n">
@@ -9710,7 +9685,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B85" t="n">
@@ -9721,7 +9696,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B86" t="n">
@@ -9732,7 +9707,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B87" t="n">
@@ -9743,7 +9718,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B88" t="n">
@@ -9754,7 +9729,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B89" t="n">
@@ -9765,7 +9740,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B90" t="n">
@@ -9776,7 +9751,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B91" t="n">
@@ -9787,7 +9762,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B92" t="n">
@@ -9798,7 +9773,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B93" t="n">
@@ -9809,7 +9784,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B94" t="n">
@@ -9820,7 +9795,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B95" t="n">
@@ -9831,7 +9806,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B96" t="n">
@@ -9842,7 +9817,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B97" t="n">
@@ -9853,7 +9828,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B98" t="n">
@@ -9864,7 +9839,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B99" t="n">
@@ -9875,7 +9850,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B100" t="n">
@@ -9886,7 +9861,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B101" t="n">
@@ -9897,7 +9872,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B102" t="n">
@@ -9908,7 +9883,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B103" t="n">
@@ -9919,7 +9894,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B104" t="n">
@@ -9930,7 +9905,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B105" t="n">
@@ -9941,7 +9916,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B106" t="n">
@@ -9952,7 +9927,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B107" t="n">
@@ -9963,7 +9938,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B108" t="n">
@@ -9974,7 +9949,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B109" t="n">
@@ -9985,7 +9960,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B110" t="n">
@@ -9996,7 +9971,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B111" t="n">
@@ -10007,7 +9982,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B112" t="n">
@@ -10018,7 +9993,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B113" t="n">
@@ -10029,7 +10004,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B114" t="n">
@@ -10040,7 +10015,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B115" t="n">
@@ -10051,7 +10026,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B116" t="n">
@@ -10062,7 +10037,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B117" t="n">
@@ -10073,7 +10048,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B118" t="n">
@@ -10084,7 +10059,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B119" t="n">
@@ -10095,7 +10070,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B120" t="n">
@@ -10106,7 +10081,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B121" t="n">
@@ -10117,7 +10092,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B122" t="n">
@@ -10128,7 +10103,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B123" t="n">
@@ -10139,7 +10114,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B124" t="n">
@@ -10150,7 +10125,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B125" t="n">
@@ -10161,7 +10136,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B126" t="n">
@@ -10172,7 +10147,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B127" t="n">
@@ -10183,7 +10158,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B128" t="n">
@@ -10194,7 +10169,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B129" t="n">
@@ -10205,7 +10180,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B130" t="n">
@@ -10216,7 +10191,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B131" t="n">
@@ -10227,7 +10202,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B132" t="n">
@@ -10238,7 +10213,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B133" t="n">
@@ -10249,7 +10224,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B134" t="n">
@@ -10260,7 +10235,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B135" t="n">
@@ -10271,7 +10246,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B136" t="n">
@@ -10282,7 +10257,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B137" t="n">
@@ -10293,7 +10268,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B138" t="n">
@@ -10304,7 +10279,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B139" t="n">
@@ -10315,7 +10290,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="1" t="n">
         <v>243</v>
       </c>
       <c r="B140" t="n">
@@ -10326,7 +10301,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="1" t="n">
         <v>244</v>
       </c>
       <c r="B141" t="n">
@@ -10337,7 +10312,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="1" t="n">
         <v>245</v>
       </c>
       <c r="B142" t="n">
@@ -10348,7 +10323,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="1" t="n">
         <v>246</v>
       </c>
       <c r="B143" t="n">
@@ -10359,7 +10334,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="1" t="n">
         <v>247</v>
       </c>
       <c r="B144" t="n">
@@ -10370,7 +10345,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="1" t="n">
         <v>248</v>
       </c>
       <c r="B145" t="n">
@@ -10381,7 +10356,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="1" t="n">
         <v>249</v>
       </c>
       <c r="B146" t="n">
@@ -10392,7 +10367,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="1" t="n">
         <v>251</v>
       </c>
       <c r="B147" t="n">
@@ -10403,7 +10378,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="1" t="n">
         <v>252</v>
       </c>
       <c r="B148" t="n">
@@ -10414,7 +10389,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="1" t="n">
         <v>253</v>
       </c>
       <c r="B149" t="n">
@@ -10425,7 +10400,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="1" t="n">
         <v>254</v>
       </c>
       <c r="B150" t="n">
@@ -10436,7 +10411,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="1" t="n">
         <v>255</v>
       </c>
       <c r="B151" t="n">
@@ -10447,7 +10422,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="1" t="n">
         <v>256</v>
       </c>
       <c r="B152" t="n">
@@ -10458,7 +10433,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="1" t="n">
         <v>257</v>
       </c>
       <c r="B153" t="n">
@@ -10469,7 +10444,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="1" t="n">
         <v>258</v>
       </c>
       <c r="B154" t="n">
@@ -10480,7 +10455,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="1" t="n">
         <v>259</v>
       </c>
       <c r="B155" t="n">
@@ -10491,7 +10466,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="1" t="n">
         <v>260</v>
       </c>
       <c r="B156" t="n">
@@ -10502,7 +10477,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="1" t="n">
         <v>261</v>
       </c>
       <c r="B157" t="n">
@@ -10513,7 +10488,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="1" t="n">
         <v>262</v>
       </c>
       <c r="B158" t="n">
@@ -10524,7 +10499,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="1" t="n">
         <v>263</v>
       </c>
       <c r="B159" t="n">
@@ -10535,7 +10510,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="1" t="n">
         <v>264</v>
       </c>
       <c r="B160" t="n">
@@ -10546,7 +10521,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="1" t="n">
         <v>265</v>
       </c>
       <c r="B161" t="n">
@@ -10557,7 +10532,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="1" t="n">
         <v>266</v>
       </c>
       <c r="B162" t="n">
@@ -10568,7 +10543,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="1" t="n">
         <v>267</v>
       </c>
       <c r="B163" t="n">
@@ -10579,7 +10554,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="1" t="n">
         <v>268</v>
       </c>
       <c r="B164" t="n">
@@ -10590,7 +10565,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="1" t="n">
         <v>270</v>
       </c>
       <c r="B165" t="n">
@@ -10601,7 +10576,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
+      <c r="A166" s="1" t="n">
         <v>271</v>
       </c>
       <c r="B166" t="n">
@@ -10612,7 +10587,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="1" t="n">
         <v>272</v>
       </c>
       <c r="B167" t="n">
@@ -10623,7 +10598,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="1" t="n">
         <v>273</v>
       </c>
       <c r="B168" t="n">
@@ -10634,7 +10609,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="1" t="n">
         <v>274</v>
       </c>
       <c r="B169" t="n">
@@ -10645,7 +10620,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="1" t="n">
         <v>275</v>
       </c>
       <c r="B170" t="n">
@@ -10656,7 +10631,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="1" t="n">
         <v>276</v>
       </c>
       <c r="B171" t="n">
@@ -10667,7 +10642,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="1" t="n">
         <v>277</v>
       </c>
       <c r="B172" t="n">
@@ -10678,7 +10653,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="1" t="n">
         <v>278</v>
       </c>
       <c r="B173" t="n">
@@ -10689,7 +10664,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="1" t="n">
         <v>280</v>
       </c>
       <c r="B174" t="n">
@@ -10700,7 +10675,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="1" t="n">
         <v>281</v>
       </c>
       <c r="B175" t="n">
@@ -10711,7 +10686,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="1" t="n">
         <v>282</v>
       </c>
       <c r="B176" t="n">
@@ -10722,7 +10697,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="1" t="n">
         <v>283</v>
       </c>
       <c r="B177" t="n">
@@ -10733,7 +10708,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="1" t="n">
         <v>287</v>
       </c>
       <c r="B178" t="n">
@@ -10744,7 +10719,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="1" t="n">
         <v>288</v>
       </c>
       <c r="B179" t="n">
@@ -10755,7 +10730,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="1" t="n">
         <v>289</v>
       </c>
       <c r="B180" t="n">
@@ -10766,7 +10741,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="1" t="n">
         <v>291</v>
       </c>
       <c r="B181" t="n">
@@ -10777,7 +10752,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="1" t="n">
         <v>292</v>
       </c>
       <c r="B182" t="n">
@@ -10788,7 +10763,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="1" t="n">
         <v>293</v>
       </c>
       <c r="B183" t="n">
@@ -10799,7 +10774,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="1" t="n">
         <v>294</v>
       </c>
       <c r="B184" t="n">
@@ -10810,7 +10785,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" s="1" t="n">
         <v>297</v>
       </c>
       <c r="B185" t="n">
@@ -10821,7 +10796,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" s="1" t="n">
         <v>298</v>
       </c>
       <c r="B186" t="n">
@@ -10832,7 +10807,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" s="1" t="n">
         <v>299</v>
       </c>
       <c r="B187" t="n">
@@ -10843,7 +10818,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" s="1" t="n">
         <v>300</v>
       </c>
       <c r="B188" t="n">
@@ -10854,7 +10829,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" s="1" t="n">
         <v>302</v>
       </c>
       <c r="B189" t="n">
@@ -10865,7 +10840,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" s="1" t="n">
         <v>303</v>
       </c>
       <c r="B190" t="n">
@@ -10876,7 +10851,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
+      <c r="A191" s="1" t="n">
         <v>304</v>
       </c>
       <c r="B191" t="n">
@@ -10887,7 +10862,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
+      <c r="A192" s="1" t="n">
         <v>305</v>
       </c>
       <c r="B192" t="n">
@@ -10898,7 +10873,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" s="1" t="n">
         <v>307</v>
       </c>
       <c r="B193" t="n">
@@ -10909,7 +10884,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" s="1" t="n">
         <v>309</v>
       </c>
       <c r="B194" t="n">
